--- a/Code/Results/Cases/Case_1_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6511177408667663</v>
+        <v>0.5832667944600303</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05697479179722365</v>
+        <v>0.03024337164594471</v>
       </c>
       <c r="E2">
-        <v>0.112657722519526</v>
+        <v>0.2587809918563158</v>
       </c>
       <c r="F2">
-        <v>0.5076527108044075</v>
+        <v>0.7407262362406257</v>
       </c>
       <c r="G2">
-        <v>0.0007980103334037315</v>
+        <v>0.002430470156977063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4180460413876546</v>
+        <v>1.012226581589886</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.309720336921373</v>
+        <v>0.397417126174048</v>
       </c>
       <c r="L2">
-        <v>0.2037589367471355</v>
+        <v>0.1535508338808711</v>
       </c>
       <c r="M2">
-        <v>0.1866501959879514</v>
+        <v>0.1562473903505044</v>
       </c>
       <c r="N2">
-        <v>0.9175036547812603</v>
+        <v>1.870339648719417</v>
       </c>
       <c r="O2">
-        <v>1.469322762231258</v>
+        <v>2.553903577800014</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5746774504509062</v>
+        <v>0.563823169258967</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05130307764271436</v>
+        <v>0.02829679280228703</v>
       </c>
       <c r="E3">
-        <v>0.1146617567066108</v>
+        <v>0.2601573798439722</v>
       </c>
       <c r="F3">
-        <v>0.4751225716938592</v>
+        <v>0.7376062893357584</v>
       </c>
       <c r="G3">
-        <v>0.0008014440946575046</v>
+        <v>0.002432801525739718</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4298070077313092</v>
+        <v>1.021250444267515</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.149905422165972</v>
+        <v>0.3473605290133435</v>
       </c>
       <c r="L3">
-        <v>0.1792583593793466</v>
+        <v>0.1474363807469388</v>
       </c>
       <c r="M3">
-        <v>0.1645381658858014</v>
+        <v>0.1506719846460562</v>
       </c>
       <c r="N3">
-        <v>0.9577941958861249</v>
+        <v>1.887984375847335</v>
       </c>
       <c r="O3">
-        <v>1.407528329844297</v>
+        <v>2.556518631981845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5280198677333772</v>
+        <v>0.5521071171004621</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04780779434177873</v>
+        <v>0.02709009284257746</v>
       </c>
       <c r="E4">
-        <v>0.1159656234784477</v>
+        <v>0.2610546138234853</v>
       </c>
       <c r="F4">
-        <v>0.456009217074488</v>
+        <v>0.7361257566161115</v>
       </c>
       <c r="G4">
-        <v>0.000803626365482519</v>
+        <v>0.002434310976002894</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4376963311761841</v>
+        <v>1.027190405284856</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.051711311959821</v>
+        <v>0.316495064848084</v>
       </c>
       <c r="L4">
-        <v>0.164350053844025</v>
+        <v>0.1437548336717569</v>
       </c>
       <c r="M4">
-        <v>0.1510569735768108</v>
+        <v>0.1473138252807082</v>
       </c>
       <c r="N4">
-        <v>0.983595623373863</v>
+        <v>1.899384928679126</v>
       </c>
       <c r="O4">
-        <v>1.372315109518837</v>
+        <v>2.55953668177365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5090702475033027</v>
+        <v>0.5473891563194968</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04637996060353089</v>
+        <v>0.02659548384782795</v>
       </c>
       <c r="E5">
-        <v>0.1165153005317241</v>
+        <v>0.2614333814209526</v>
       </c>
       <c r="F5">
-        <v>0.4484252345356268</v>
+        <v>0.7356319153387645</v>
       </c>
       <c r="G5">
-        <v>0.0008045345231551674</v>
+        <v>0.002434945755808738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4410751243183881</v>
+        <v>1.029711458918303</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.011667947579525</v>
+        <v>0.3038849339450564</v>
       </c>
       <c r="L5">
-        <v>0.1583057211964345</v>
+        <v>0.1422729634953015</v>
       </c>
       <c r="M5">
-        <v>0.1455852461427263</v>
+        <v>0.1459618565250835</v>
       </c>
       <c r="N5">
-        <v>0.9943719699529154</v>
+        <v>1.904173287347892</v>
       </c>
       <c r="O5">
-        <v>1.35861851910478</v>
+        <v>2.561121857602728</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5059273579590524</v>
+        <v>0.5466091651474443</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04614265275840523</v>
+        <v>0.02651318173839456</v>
       </c>
       <c r="E6">
-        <v>0.116607678576925</v>
+        <v>0.261497069842958</v>
       </c>
       <c r="F6">
-        <v>0.4471779679764509</v>
+        <v>0.7355565282721628</v>
       </c>
       <c r="G6">
-        <v>0.0008046864692347117</v>
+        <v>0.002435052349764051</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.441645946802339</v>
+        <v>1.030136148258691</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.005016731609771</v>
+        <v>0.3017891043781731</v>
       </c>
       <c r="L6">
-        <v>0.1573038452717697</v>
+        <v>0.1420280136271543</v>
       </c>
       <c r="M6">
-        <v>0.1446779374995906</v>
+        <v>0.1457383638262293</v>
       </c>
       <c r="N6">
-        <v>0.9961770533875329</v>
+        <v>1.904977001567683</v>
       </c>
       <c r="O6">
-        <v>1.356382716001008</v>
+        <v>2.561406537917279</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.52776405616396</v>
+        <v>0.5520432599057017</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04778855248015645</v>
+        <v>0.02708343396143675</v>
       </c>
       <c r="E7">
-        <v>0.1159729624967816</v>
+        <v>0.2610596687822664</v>
       </c>
       <c r="F7">
-        <v>0.4559061221167156</v>
+        <v>0.73611865309352</v>
       </c>
       <c r="G7">
-        <v>0.0008036385364197904</v>
+        <v>0.00243431945728308</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4377412407920644</v>
+        <v>1.027223998196927</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.051171403264505</v>
+        <v>0.3163251297903855</v>
       </c>
       <c r="L7">
-        <v>0.164268416596606</v>
+        <v>0.1437347740637165</v>
       </c>
       <c r="M7">
-        <v>0.1509830936938883</v>
+        <v>0.1472955251521348</v>
       </c>
       <c r="N7">
-        <v>0.9837399026188969</v>
+        <v>1.899448928935939</v>
       </c>
       <c r="O7">
-        <v>1.372127790848467</v>
+        <v>2.55955662124849</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6246999329438268</v>
+        <v>0.5765167625451113</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05502169020103764</v>
+        <v>0.02957458863693319</v>
       </c>
       <c r="E8">
-        <v>0.1133334142193332</v>
+        <v>0.2592447696773601</v>
       </c>
       <c r="F8">
-        <v>0.4962506999261507</v>
+        <v>0.7395602078047858</v>
       </c>
       <c r="G8">
-        <v>0.0007991791196607579</v>
+        <v>0.002431257862411231</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4219600215180037</v>
+        <v>1.015255183409355</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.254622858392878</v>
+        <v>0.3801850533446327</v>
       </c>
       <c r="L8">
-        <v>0.1952811937036074</v>
+        <v>0.151427526290945</v>
       </c>
       <c r="M8">
-        <v>0.1790048123155437</v>
+        <v>0.1543115377313065</v>
       </c>
       <c r="N8">
-        <v>0.9311720360348392</v>
+        <v>1.876305986350268</v>
       </c>
       <c r="O8">
-        <v>1.447429266849554</v>
+        <v>2.554512181922973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8172809727068966</v>
+        <v>0.6262549036084977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06911667978096148</v>
+        <v>0.03436782872469735</v>
       </c>
       <c r="E9">
-        <v>0.1087447973097444</v>
+        <v>0.2560979973662376</v>
       </c>
       <c r="F9">
-        <v>0.5827388095376804</v>
+        <v>0.7497598846487179</v>
       </c>
       <c r="G9">
-        <v>0.0007910077324527442</v>
+        <v>0.002425870216236136</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.396508275756549</v>
+        <v>0.9949491647275792</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.65363202615282</v>
+        <v>0.5043573244998925</v>
       </c>
       <c r="L9">
-        <v>0.2573175587810965</v>
+        <v>0.1670869183183328</v>
       </c>
       <c r="M9">
-        <v>0.2348164391194985</v>
+        <v>0.168582364514176</v>
       </c>
       <c r="N9">
-        <v>0.8367627030258848</v>
+        <v>1.835415293424427</v>
       </c>
       <c r="O9">
-        <v>1.618323685983455</v>
+        <v>2.555823807189682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9607285845423519</v>
+        <v>0.6638402584531207</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07943728481057377</v>
+        <v>0.03783272945013039</v>
       </c>
       <c r="E10">
-        <v>0.1057394683777695</v>
+        <v>0.2540354832552225</v>
       </c>
       <c r="F10">
-        <v>0.6515815514514998</v>
+        <v>0.7593570197423105</v>
       </c>
       <c r="G10">
-        <v>0.0007853346755967532</v>
+        <v>0.002422283866647051</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3814403379421663</v>
+        <v>0.9819550761840929</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.94768467536889</v>
+        <v>0.5949221870722852</v>
       </c>
       <c r="L10">
-        <v>0.3038606033388618</v>
+        <v>0.178938609814125</v>
       </c>
       <c r="M10">
-        <v>0.276499136495616</v>
+        <v>0.1793745752001072</v>
       </c>
       <c r="N10">
-        <v>0.7730384742787262</v>
+        <v>1.808106192820444</v>
       </c>
       <c r="O10">
-        <v>1.760361707379161</v>
+        <v>2.563618123272818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.026515953795354</v>
+        <v>0.6811609243762859</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08412938861175689</v>
+        <v>0.03939656713752981</v>
       </c>
       <c r="E11">
-        <v>0.1044536039811028</v>
+        <v>0.2531509494560347</v>
       </c>
       <c r="F11">
-        <v>0.6842407071902414</v>
+        <v>0.7641798147446792</v>
       </c>
       <c r="G11">
-        <v>0.0007828211556301478</v>
+        <v>0.002420732332621457</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3754396527066959</v>
+        <v>0.9764606976386396</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.081862432520523</v>
+        <v>0.6359743839250882</v>
       </c>
       <c r="L11">
-        <v>0.3252959957200261</v>
+        <v>0.1844049493237492</v>
       </c>
       <c r="M11">
-        <v>0.2956450058757198</v>
+        <v>0.1843500034236456</v>
       </c>
       <c r="N11">
-        <v>0.7453546884139222</v>
+        <v>1.796274918834461</v>
       </c>
       <c r="O11">
-        <v>1.829105630589908</v>
+        <v>2.568647598264789</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.051513381286838</v>
+        <v>0.6877514092236652</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08590614859260626</v>
+        <v>0.0399869559635917</v>
       </c>
       <c r="E12">
-        <v>0.1039785442622203</v>
+        <v>0.2528236931085202</v>
       </c>
       <c r="F12">
-        <v>0.6968176776806416</v>
+        <v>0.7660717608687122</v>
       </c>
       <c r="G12">
-        <v>0.0007818786278911946</v>
+        <v>0.002420156240213037</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3732959442799597</v>
+        <v>0.9744399723649018</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.132749510687489</v>
+        <v>0.6514982356977441</v>
       </c>
       <c r="L12">
-        <v>0.3334553496418096</v>
+        <v>0.1864856064785272</v>
       </c>
       <c r="M12">
-        <v>0.3029246528053022</v>
+        <v>0.1862434493422782</v>
       </c>
       <c r="N12">
-        <v>0.7350665559854974</v>
+        <v>1.791879764567607</v>
       </c>
       <c r="O12">
-        <v>1.855779711729298</v>
+        <v>2.570765447592976</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.046125806429842</v>
+        <v>0.6863306367392568</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08552348719148029</v>
+        <v>0.03985988573175803</v>
       </c>
       <c r="E13">
-        <v>0.1040803259278522</v>
+        <v>0.2528938316963505</v>
       </c>
       <c r="F13">
-        <v>0.6940994009281809</v>
+        <v>0.7656613772030596</v>
       </c>
       <c r="G13">
-        <v>0.0007820812112042727</v>
+        <v>0.002420279803877122</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.37375181315387</v>
+        <v>0.9748725093757784</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.121786353544593</v>
+        <v>0.6481558737927458</v>
       </c>
       <c r="L13">
-        <v>0.3316961342659255</v>
+        <v>0.186037026708874</v>
       </c>
       <c r="M13">
-        <v>0.3013554872290527</v>
+        <v>0.1858352477212222</v>
       </c>
       <c r="N13">
-        <v>0.7372734873024918</v>
+        <v>1.792822555204102</v>
       </c>
       <c r="O13">
-        <v>1.850005602981582</v>
+        <v>2.57029984561288</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.028570748724263</v>
+        <v>0.6817024987576588</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0842755623202649</v>
+        <v>0.03944517505050271</v>
       </c>
       <c r="E14">
-        <v>0.1044142815595381</v>
+        <v>0.2531238717637119</v>
       </c>
       <c r="F14">
-        <v>0.6852711211078457</v>
+        <v>0.7643341507435082</v>
       </c>
       <c r="G14">
-        <v>0.000782743429322751</v>
+        <v>0.002420684708283222</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3752606761013979</v>
+        <v>0.976293251587979</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.086047296530779</v>
+        <v>0.6372519799467966</v>
       </c>
       <c r="L14">
-        <v>0.3259663976483012</v>
+        <v>0.1845759129343065</v>
       </c>
       <c r="M14">
-        <v>0.2962432970862494</v>
+        <v>0.1845055915377714</v>
       </c>
       <c r="N14">
-        <v>0.7445043225834169</v>
+        <v>1.795911621481711</v>
       </c>
       <c r="O14">
-        <v>1.831286963412964</v>
+        <v>2.568817560650729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.017829127140033</v>
+        <v>0.6788717203637304</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08351117854747514</v>
+        <v>0.03919091729877522</v>
       </c>
       <c r="E15">
-        <v>0.1046203904044414</v>
+        <v>0.2532657795895039</v>
       </c>
       <c r="F15">
-        <v>0.679891360655148</v>
+        <v>0.7635297350894916</v>
       </c>
       <c r="G15">
-        <v>0.0007831502551632698</v>
+        <v>0.002420934212102919</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3762018276188179</v>
+        <v>0.9771712936220673</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.064166650060685</v>
+        <v>0.6305701802234864</v>
       </c>
       <c r="L15">
-        <v>0.3224624060880501</v>
+        <v>0.1836823254051438</v>
       </c>
       <c r="M15">
-        <v>0.2931158709334838</v>
+        <v>0.1836923536857142</v>
       </c>
       <c r="N15">
-        <v>0.7489590581574213</v>
+        <v>1.797814845246625</v>
       </c>
       <c r="O15">
-        <v>1.819906384990674</v>
+        <v>2.56793739359864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9564406625775064</v>
+        <v>0.6627127523655929</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07913061917893316</v>
+        <v>0.03773027808854579</v>
       </c>
       <c r="E16">
-        <v>0.1058251533219687</v>
+        <v>0.254094368205523</v>
       </c>
       <c r="F16">
-        <v>0.6494756068041951</v>
+        <v>0.7590510299277469</v>
       </c>
       <c r="G16">
-        <v>0.0007855002605280619</v>
+        <v>0.002422386866683042</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3818501696651388</v>
+        <v>0.9823225279988073</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.938925609225464</v>
+        <v>0.5922363275560656</v>
       </c>
       <c r="L16">
-        <v>0.3024654112053895</v>
+        <v>0.1785828708826642</v>
       </c>
       <c r="M16">
-        <v>0.2752518705081002</v>
+        <v>0.1790507360976932</v>
       </c>
       <c r="N16">
-        <v>0.7748745599538331</v>
+        <v>1.808891302000932</v>
       </c>
       <c r="O16">
-        <v>1.755956299981165</v>
+        <v>2.563319286977304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9189231427035622</v>
+        <v>0.6528564630619371</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07644282448906381</v>
+        <v>0.03683103917806818</v>
       </c>
       <c r="E17">
-        <v>0.106585177711737</v>
+        <v>0.2546164189699283</v>
       </c>
       <c r="F17">
-        <v>0.6311718187298965</v>
+        <v>0.756420498907211</v>
       </c>
       <c r="G17">
-        <v>0.0007869588607874603</v>
+        <v>0.002423298454125864</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3855379791967053</v>
+        <v>0.9855893383008691</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.862211907248366</v>
+        <v>0.5686818049051965</v>
       </c>
       <c r="L17">
-        <v>0.29026827468428</v>
+        <v>0.1754736421599716</v>
       </c>
       <c r="M17">
-        <v>0.264342162245697</v>
+        <v>0.1762200643438625</v>
       </c>
       <c r="N17">
-        <v>0.7911122450494883</v>
+        <v>1.815837913178589</v>
       </c>
       <c r="O17">
-        <v>1.717816233310174</v>
+        <v>2.560866214319418</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8973936150486566</v>
+        <v>0.6472083980737011</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07489659025859652</v>
+        <v>0.03631265856125765</v>
       </c>
       <c r="E18">
-        <v>0.1070299618771924</v>
+        <v>0.2549217461798303</v>
       </c>
       <c r="F18">
-        <v>0.6207692447995328</v>
+        <v>0.7549505066049633</v>
       </c>
       <c r="G18">
-        <v>0.0007878041561876599</v>
+        <v>0.002423830300166995</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3877391040382676</v>
+        <v>0.9875075453337843</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.818125836172499</v>
+        <v>0.5551201460276047</v>
       </c>
       <c r="L18">
-        <v>0.2832772502049323</v>
+        <v>0.1736923565183304</v>
       </c>
       <c r="M18">
-        <v>0.2580843317926629</v>
+        <v>0.1745981566625012</v>
       </c>
       <c r="N18">
-        <v>0.8005740606455358</v>
+        <v>1.819889120721818</v>
       </c>
       <c r="O18">
-        <v>1.696264746370787</v>
+        <v>2.559594938680988</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.890112344224832</v>
+        <v>0.6452996852244155</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07437300212206566</v>
+        <v>0.03613694493914466</v>
       </c>
       <c r="E19">
-        <v>0.1071818647184575</v>
+        <v>0.2550259941574551</v>
       </c>
       <c r="F19">
-        <v>0.6172681391978116</v>
+        <v>0.7544601829057598</v>
       </c>
       <c r="G19">
-        <v>0.0007880914598623194</v>
+        <v>0.002424011668046899</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3884979333672334</v>
+        <v>0.988163755406184</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.803204994176411</v>
+        <v>0.5505260661311127</v>
       </c>
       <c r="L19">
-        <v>0.2809142768907975</v>
+        <v>0.1730904596158496</v>
       </c>
       <c r="M19">
-        <v>0.2559683932754311</v>
+        <v>0.1740500788460793</v>
       </c>
       <c r="N19">
-        <v>0.8037984572971464</v>
+        <v>1.821270356764387</v>
       </c>
       <c r="O19">
-        <v>1.689032600248709</v>
+        <v>2.559188496696322</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9229117569282153</v>
+        <v>0.6539035110544091</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07672897184231431</v>
+        <v>0.03692688515558729</v>
       </c>
       <c r="E20">
-        <v>0.1065034800177485</v>
+        <v>0.254560322545083</v>
       </c>
       <c r="F20">
-        <v>0.633107204946775</v>
+        <v>0.7566960714859263</v>
       </c>
       <c r="G20">
-        <v>0.0007868029361010293</v>
+        <v>0.002423200635727147</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3851370851624587</v>
+        <v>0.9852375215341524</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.870374194265821</v>
+        <v>0.571190649125441</v>
       </c>
       <c r="L20">
-        <v>0.2915641192675622</v>
+        <v>0.1758038948846661</v>
       </c>
       <c r="M20">
-        <v>0.2655017234822523</v>
+        <v>0.1765207514033484</v>
       </c>
       <c r="N20">
-        <v>0.7893710022375089</v>
+        <v>1.815092669798968</v>
       </c>
       <c r="O20">
-        <v>1.721836052864887</v>
+        <v>2.561112893611266</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.033724711511155</v>
+        <v>0.683061043712172</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08464210612238077</v>
+        <v>0.03956703474901957</v>
       </c>
       <c r="E21">
-        <v>0.1043158670435491</v>
+        <v>0.253056094725711</v>
       </c>
       <c r="F21">
-        <v>0.6878583728612284</v>
+        <v>0.7647222078566216</v>
       </c>
       <c r="G21">
-        <v>0.0007825486708464125</v>
+        <v>0.002420565468068593</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3748139475049292</v>
+        <v>0.9758743204751745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.096542490249902</v>
+        <v>0.6404553130485624</v>
       </c>
       <c r="L21">
-        <v>0.3276481769572115</v>
+        <v>0.1850047886367747</v>
       </c>
       <c r="M21">
-        <v>0.2977440449053645</v>
+        <v>0.1848958908292886</v>
       </c>
       <c r="N21">
-        <v>0.7423750935773672</v>
+        <v>1.795001978470129</v>
       </c>
       <c r="O21">
-        <v>1.836767250043039</v>
+        <v>2.569247155463046</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.106648270155858</v>
+        <v>0.7023006810103425</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08981376134913432</v>
+        <v>0.04128200681772398</v>
       </c>
       <c r="E22">
-        <v>0.1029554138717153</v>
+        <v>0.2521178490364231</v>
       </c>
       <c r="F22">
-        <v>0.7248719807909652</v>
+        <v>0.7703504305988105</v>
       </c>
       <c r="G22">
-        <v>0.0007798222100611854</v>
+        <v>0.002418909888811555</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3688198366102498</v>
+        <v>0.9701039139829533</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.244813784019442</v>
+        <v>0.6855968243671953</v>
       </c>
       <c r="L22">
-        <v>0.3514796581985564</v>
+        <v>0.191080266503235</v>
       </c>
       <c r="M22">
-        <v>0.3189898895389902</v>
+        <v>0.1904240203712178</v>
       </c>
       <c r="N22">
-        <v>0.7128016435277527</v>
+        <v>1.782367534027962</v>
       </c>
       <c r="O22">
-        <v>1.915649718032853</v>
+        <v>2.575806584801455</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.067678768388305</v>
+        <v>0.6920155083671204</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08705342871049027</v>
+        <v>0.04036766458979457</v>
       </c>
       <c r="E23">
-        <v>0.1036751102573292</v>
+        <v>0.2526145130098008</v>
       </c>
       <c r="F23">
-        <v>0.704998741415551</v>
+        <v>0.7673115469405616</v>
       </c>
       <c r="G23">
-        <v>0.00078127256616084</v>
+        <v>0.00241978742062519</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3719481189541582</v>
+        <v>0.973151770673784</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.165630582042866</v>
+        <v>0.6615157974434567</v>
       </c>
       <c r="L23">
-        <v>0.3387360648393951</v>
+        <v>0.1878320163031333</v>
       </c>
       <c r="M23">
-        <v>0.307633642540452</v>
+        <v>0.1874686109675707</v>
       </c>
       <c r="N23">
-        <v>0.7284785441624226</v>
+        <v>1.789065392869514</v>
       </c>
       <c r="O23">
-        <v>1.873187046434424</v>
+        <v>2.572191963787276</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9211083811329956</v>
+        <v>0.6534300831569908</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07659960771991337</v>
+        <v>0.03688355753607198</v>
       </c>
       <c r="E24">
-        <v>0.1065403911512932</v>
+        <v>0.2545856675610949</v>
       </c>
       <c r="F24">
-        <v>0.6322318426984879</v>
+        <v>0.7565713532483116</v>
       </c>
       <c r="G24">
-        <v>0.000786873408695798</v>
+        <v>0.002423244835245843</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3853180776400151</v>
+        <v>0.9853964530631032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.866683970624052</v>
+        <v>0.5700564624322908</v>
       </c>
       <c r="L24">
-        <v>0.2909782020081906</v>
+        <v>0.1756545681483033</v>
       </c>
       <c r="M24">
-        <v>0.2649774415138424</v>
+        <v>0.1763847936944742</v>
       </c>
       <c r="N24">
-        <v>0.79015782448759</v>
+        <v>1.815429415194892</v>
       </c>
       <c r="O24">
-        <v>1.720017525699518</v>
+        <v>2.561000936832329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7648721663734079</v>
+        <v>0.6126147513729734</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06531122207687901</v>
+        <v>0.03308103778465465</v>
       </c>
       <c r="E25">
-        <v>0.1099224767615949</v>
+        <v>0.2569053459641697</v>
       </c>
       <c r="F25">
-        <v>0.5584718781237399</v>
+        <v>0.7466311940704671</v>
       </c>
       <c r="G25">
-        <v>0.0007931588341552188</v>
+        <v>0.002427262135641344</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4027771756969045</v>
+        <v>1.000104144970759</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.545598153555886</v>
+        <v>0.4708806644285346</v>
       </c>
       <c r="L25">
-        <v>0.2403823901120461</v>
+        <v>0.1627895187129553</v>
       </c>
       <c r="M25">
-        <v>0.2196104620066812</v>
+        <v>0.1646673796856852</v>
       </c>
       <c r="N25">
-        <v>0.8613392496081307</v>
+        <v>1.845996928474793</v>
       </c>
       <c r="O25">
-        <v>1.569374124512422</v>
+        <v>2.554269476468647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5832667944600303</v>
+        <v>0.6511177408667379</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03024337164594471</v>
+        <v>0.05697479179740128</v>
       </c>
       <c r="E2">
-        <v>0.2587809918563158</v>
+        <v>0.112657722519558</v>
       </c>
       <c r="F2">
-        <v>0.7407262362406257</v>
+        <v>0.5076527108044004</v>
       </c>
       <c r="G2">
-        <v>0.002430470156977063</v>
+        <v>0.000798010333346097</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.012226581589886</v>
+        <v>0.4180460413876723</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.397417126174048</v>
+        <v>1.309720336921458</v>
       </c>
       <c r="L2">
-        <v>0.1535508338808711</v>
+        <v>0.2037589367470929</v>
       </c>
       <c r="M2">
-        <v>0.1562473903505044</v>
+        <v>0.1866501959879727</v>
       </c>
       <c r="N2">
-        <v>1.870339648719417</v>
+        <v>0.9175036547812141</v>
       </c>
       <c r="O2">
-        <v>2.553903577800014</v>
+        <v>1.469322762231229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.563823169258967</v>
+        <v>0.5746774504510483</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02829679280228703</v>
+        <v>0.05130307764287068</v>
       </c>
       <c r="E3">
-        <v>0.2601573798439722</v>
+        <v>0.1146617567066212</v>
       </c>
       <c r="F3">
-        <v>0.7376062893357584</v>
+        <v>0.4751225716938379</v>
       </c>
       <c r="G3">
-        <v>0.002432801525739718</v>
+        <v>0.0008014440946383507</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.021250444267515</v>
+        <v>0.4298070077313092</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3473605290133435</v>
+        <v>1.149905422166057</v>
       </c>
       <c r="L3">
-        <v>0.1474363807469388</v>
+        <v>0.1792583593794461</v>
       </c>
       <c r="M3">
-        <v>0.1506719846460562</v>
+        <v>0.1645381658857907</v>
       </c>
       <c r="N3">
-        <v>1.887984375847335</v>
+        <v>0.9577941958861178</v>
       </c>
       <c r="O3">
-        <v>2.556518631981845</v>
+        <v>1.407528329844268</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5521071171004621</v>
+        <v>0.5280198677335193</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02709009284257746</v>
+        <v>0.04780779434170768</v>
       </c>
       <c r="E4">
-        <v>0.2610546138234853</v>
+        <v>0.1159656234784345</v>
       </c>
       <c r="F4">
-        <v>0.7361257566161115</v>
+        <v>0.456009217074488</v>
       </c>
       <c r="G4">
-        <v>0.002434310976002894</v>
+        <v>0.0008036263654244723</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.027190405284856</v>
+        <v>0.4376963311761699</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.316495064848084</v>
+        <v>1.051711311959991</v>
       </c>
       <c r="L4">
-        <v>0.1437548336717569</v>
+        <v>0.1643500538440534</v>
       </c>
       <c r="M4">
-        <v>0.1473138252807082</v>
+        <v>0.1510569735768108</v>
       </c>
       <c r="N4">
-        <v>1.899384928679126</v>
+        <v>0.9835956233738647</v>
       </c>
       <c r="O4">
-        <v>2.55953668177365</v>
+        <v>1.372315109518837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5473891563194968</v>
+        <v>0.5090702475034306</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02659548384782795</v>
+        <v>0.0463799606034172</v>
       </c>
       <c r="E5">
-        <v>0.2614333814209526</v>
+        <v>0.1165153005317383</v>
       </c>
       <c r="F5">
-        <v>0.7356319153387645</v>
+        <v>0.448425234535641</v>
       </c>
       <c r="G5">
-        <v>0.002434945755808738</v>
+        <v>0.0008045345230964178</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.029711458918303</v>
+        <v>0.4410751243184023</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3038849339450564</v>
+        <v>1.011667947579554</v>
       </c>
       <c r="L5">
-        <v>0.1422729634953015</v>
+        <v>0.1583057211964913</v>
       </c>
       <c r="M5">
-        <v>0.1459618565250835</v>
+        <v>0.1455852461427227</v>
       </c>
       <c r="N5">
-        <v>1.904173287347892</v>
+        <v>0.9943719699529145</v>
       </c>
       <c r="O5">
-        <v>2.561121857602728</v>
+        <v>1.358618519104766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5466091651474443</v>
+        <v>0.5059273579590382</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02651318173839456</v>
+        <v>0.04614265275825602</v>
       </c>
       <c r="E6">
-        <v>0.261497069842958</v>
+        <v>0.1166076785769283</v>
       </c>
       <c r="F6">
-        <v>0.7355565282721628</v>
+        <v>0.4471779679764651</v>
       </c>
       <c r="G6">
-        <v>0.002435052349764051</v>
+        <v>0.0008046864691768253</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.030136148258691</v>
+        <v>0.4416459468023248</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3017891043781731</v>
+        <v>1.005016731609913</v>
       </c>
       <c r="L6">
-        <v>0.1420280136271543</v>
+        <v>0.1573038452718336</v>
       </c>
       <c r="M6">
-        <v>0.1457383638262293</v>
+        <v>0.1446779374996048</v>
       </c>
       <c r="N6">
-        <v>1.904977001567683</v>
+        <v>0.9961770533875907</v>
       </c>
       <c r="O6">
-        <v>2.561406537917279</v>
+        <v>1.356382716001008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5520432599057017</v>
+        <v>0.52776405616396</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02708343396143675</v>
+        <v>0.04778855248062541</v>
       </c>
       <c r="E7">
-        <v>0.2610596687822664</v>
+        <v>0.1159729624967822</v>
       </c>
       <c r="F7">
-        <v>0.73611865309352</v>
+        <v>0.4559061221166871</v>
       </c>
       <c r="G7">
-        <v>0.00243431945728308</v>
+        <v>0.0008036385364200962</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.027223998196927</v>
+        <v>0.4377412407920502</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3163251297903855</v>
+        <v>1.05117140326459</v>
       </c>
       <c r="L7">
-        <v>0.1437347740637165</v>
+        <v>0.1642684165965562</v>
       </c>
       <c r="M7">
-        <v>0.1472955251521348</v>
+        <v>0.1509830936938705</v>
       </c>
       <c r="N7">
-        <v>1.899448928935939</v>
+        <v>0.9837399026189271</v>
       </c>
       <c r="O7">
-        <v>2.55955662124849</v>
+        <v>1.372127790848438</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5765167625451113</v>
+        <v>0.6246999329439689</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02957458863693319</v>
+        <v>0.0550216902008529</v>
       </c>
       <c r="E8">
-        <v>0.2592447696773601</v>
+        <v>0.1133334142193523</v>
       </c>
       <c r="F8">
-        <v>0.7395602078047858</v>
+        <v>0.4962506999261294</v>
       </c>
       <c r="G8">
-        <v>0.002431257862411231</v>
+        <v>0.0007991791196037771</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.015255183409355</v>
+        <v>0.4219600215179788</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3801850533446327</v>
+        <v>1.254622858392906</v>
       </c>
       <c r="L8">
-        <v>0.151427526290945</v>
+        <v>0.1952811937035932</v>
       </c>
       <c r="M8">
-        <v>0.1543115377313065</v>
+        <v>0.1790048123155579</v>
       </c>
       <c r="N8">
-        <v>1.876305986350268</v>
+        <v>0.9311720360348223</v>
       </c>
       <c r="O8">
-        <v>2.554512181922973</v>
+        <v>1.447429266849525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6262549036084977</v>
+        <v>0.8172809727069534</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03436782872469735</v>
+        <v>0.06911667978114622</v>
       </c>
       <c r="E9">
-        <v>0.2560979973662376</v>
+        <v>0.1087447973097495</v>
       </c>
       <c r="F9">
-        <v>0.7497598846487179</v>
+        <v>0.5827388095376591</v>
       </c>
       <c r="G9">
-        <v>0.002425870216236136</v>
+        <v>0.0007910077324242158</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9949491647275792</v>
+        <v>0.3965082757565561</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5043573244998925</v>
+        <v>1.653632026152991</v>
       </c>
       <c r="L9">
-        <v>0.1670869183183328</v>
+        <v>0.2573175587810397</v>
       </c>
       <c r="M9">
-        <v>0.168582364514176</v>
+        <v>0.234816439119502</v>
       </c>
       <c r="N9">
-        <v>1.835415293424427</v>
+        <v>0.8367627030258706</v>
       </c>
       <c r="O9">
-        <v>2.555823807189682</v>
+        <v>1.618323685983455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6638402584531207</v>
+        <v>0.9607285845423519</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03783272945013039</v>
+        <v>0.07943728481063062</v>
       </c>
       <c r="E10">
-        <v>0.2540354832552225</v>
+        <v>0.105739468377771</v>
       </c>
       <c r="F10">
-        <v>0.7593570197423105</v>
+        <v>0.6515815514514998</v>
       </c>
       <c r="G10">
-        <v>0.002422283866647051</v>
+        <v>0.000785334675593367</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9819550761840929</v>
+        <v>0.3814403379421769</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5949221870722852</v>
+        <v>1.947684675368748</v>
       </c>
       <c r="L10">
-        <v>0.178938609814125</v>
+        <v>0.3038606033388902</v>
       </c>
       <c r="M10">
-        <v>0.1793745752001072</v>
+        <v>0.276499136495616</v>
       </c>
       <c r="N10">
-        <v>1.808106192820444</v>
+        <v>0.7730384742787262</v>
       </c>
       <c r="O10">
-        <v>2.563618123272818</v>
+        <v>1.760361707379133</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6811609243762859</v>
+        <v>1.026515953795212</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03939656713752981</v>
+        <v>0.08412938861174979</v>
       </c>
       <c r="E11">
-        <v>0.2531509494560347</v>
+        <v>0.1044536039811175</v>
       </c>
       <c r="F11">
-        <v>0.7641798147446792</v>
+        <v>0.6842407071902414</v>
       </c>
       <c r="G11">
-        <v>0.002420732332621457</v>
+        <v>0.0007828211556045272</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9764606976386396</v>
+        <v>0.375439652706703</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6359743839250882</v>
+        <v>2.081862432520694</v>
       </c>
       <c r="L11">
-        <v>0.1844049493237492</v>
+        <v>0.3252959957200403</v>
       </c>
       <c r="M11">
-        <v>0.1843500034236456</v>
+        <v>0.295645005875727</v>
       </c>
       <c r="N11">
-        <v>1.796274918834461</v>
+        <v>0.7453546884139257</v>
       </c>
       <c r="O11">
-        <v>2.568647598264789</v>
+        <v>1.829105630589964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6877514092236652</v>
+        <v>1.051513381286838</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0399869559635917</v>
+        <v>0.08590614859288337</v>
       </c>
       <c r="E12">
-        <v>0.2528236931085202</v>
+        <v>0.1039785442622372</v>
       </c>
       <c r="F12">
-        <v>0.7660717608687122</v>
+        <v>0.6968176776806558</v>
       </c>
       <c r="G12">
-        <v>0.002420156240213037</v>
+        <v>0.0007818786279493755</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9744399723649018</v>
+        <v>0.3732959442799597</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6514982356977441</v>
+        <v>2.132749510687376</v>
       </c>
       <c r="L12">
-        <v>0.1864856064785272</v>
+        <v>0.3334553496417811</v>
       </c>
       <c r="M12">
-        <v>0.1862434493422782</v>
+        <v>0.3029246528053164</v>
       </c>
       <c r="N12">
-        <v>1.791879764567607</v>
+        <v>0.7350665559854974</v>
       </c>
       <c r="O12">
-        <v>2.570765447592976</v>
+        <v>1.855779711729269</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6863306367392568</v>
+        <v>1.046125806429785</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03985988573175803</v>
+        <v>0.08552348719140923</v>
       </c>
       <c r="E13">
-        <v>0.2528938316963505</v>
+        <v>0.1040803259278646</v>
       </c>
       <c r="F13">
-        <v>0.7656613772030596</v>
+        <v>0.6940994009281667</v>
       </c>
       <c r="G13">
-        <v>0.002420279803877122</v>
+        <v>0.0007820812111715731</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9748725093757784</v>
+        <v>0.3737518131538735</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6481558737927458</v>
+        <v>2.121786353544621</v>
       </c>
       <c r="L13">
-        <v>0.186037026708874</v>
+        <v>0.3316961342659397</v>
       </c>
       <c r="M13">
-        <v>0.1858352477212222</v>
+        <v>0.3013554872290669</v>
       </c>
       <c r="N13">
-        <v>1.792822555204102</v>
+        <v>0.7372734873025379</v>
       </c>
       <c r="O13">
-        <v>2.57029984561288</v>
+        <v>1.850005602981639</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6817024987576588</v>
+        <v>1.028570748724349</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03944517505050271</v>
+        <v>0.0842755623201441</v>
       </c>
       <c r="E14">
-        <v>0.2531238717637119</v>
+        <v>0.1044142815595721</v>
       </c>
       <c r="F14">
-        <v>0.7643341507435082</v>
+        <v>0.6852711211078173</v>
       </c>
       <c r="G14">
-        <v>0.002420684708283222</v>
+        <v>0.0007827434293495519</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.976293251587979</v>
+        <v>0.3752606761013908</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6372519799467966</v>
+        <v>2.086047296530779</v>
       </c>
       <c r="L14">
-        <v>0.1845759129343065</v>
+        <v>0.3259663976483154</v>
       </c>
       <c r="M14">
-        <v>0.1845055915377714</v>
+        <v>0.2962432970862423</v>
       </c>
       <c r="N14">
-        <v>1.795911621481711</v>
+        <v>0.7445043225834578</v>
       </c>
       <c r="O14">
-        <v>2.568817560650729</v>
+        <v>1.831286963412907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6788717203637304</v>
+        <v>1.017829127140061</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03919091729877522</v>
+        <v>0.0835111785474254</v>
       </c>
       <c r="E15">
-        <v>0.2532657795895039</v>
+        <v>0.1046203904044385</v>
       </c>
       <c r="F15">
-        <v>0.7635297350894916</v>
+        <v>0.679891360655148</v>
       </c>
       <c r="G15">
-        <v>0.002420934212102919</v>
+        <v>0.000783150255189322</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9771712936220673</v>
+        <v>0.3762018276188179</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6305701802234864</v>
+        <v>2.064166650060599</v>
       </c>
       <c r="L15">
-        <v>0.1836823254051438</v>
+        <v>0.3224624060881354</v>
       </c>
       <c r="M15">
-        <v>0.1836923536857142</v>
+        <v>0.2931158709334838</v>
       </c>
       <c r="N15">
-        <v>1.797814845246625</v>
+        <v>0.7489590581574159</v>
       </c>
       <c r="O15">
-        <v>2.56793739359864</v>
+        <v>1.819906384990588</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6627127523655929</v>
+        <v>0.956440662577478</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03773027808854579</v>
+        <v>0.07913061917909658</v>
       </c>
       <c r="E16">
-        <v>0.254094368205523</v>
+        <v>0.1058251533219532</v>
       </c>
       <c r="F16">
-        <v>0.7590510299277469</v>
+        <v>0.6494756068042093</v>
       </c>
       <c r="G16">
-        <v>0.002422386866683042</v>
+        <v>0.0007855002605029719</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9823225279988073</v>
+        <v>0.3818501696651353</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5922363275560656</v>
+        <v>1.938925609225493</v>
       </c>
       <c r="L16">
-        <v>0.1785828708826642</v>
+        <v>0.3024654112054606</v>
       </c>
       <c r="M16">
-        <v>0.1790507360976932</v>
+        <v>0.275251870508086</v>
       </c>
       <c r="N16">
-        <v>1.808891302000932</v>
+        <v>0.7748745599538136</v>
       </c>
       <c r="O16">
-        <v>2.563319286977304</v>
+        <v>1.755956299981221</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6528564630619371</v>
+        <v>0.9189231427035622</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03683103917806818</v>
+        <v>0.07644282448912776</v>
       </c>
       <c r="E17">
-        <v>0.2546164189699283</v>
+        <v>0.1065851777117233</v>
       </c>
       <c r="F17">
-        <v>0.756420498907211</v>
+        <v>0.6311718187298965</v>
       </c>
       <c r="G17">
-        <v>0.002423298454125864</v>
+        <v>0.0007869588608464433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9855893383008691</v>
+        <v>0.3855379791966911</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5686818049051965</v>
+        <v>1.862211907248394</v>
       </c>
       <c r="L17">
-        <v>0.1754736421599716</v>
+        <v>0.2902682746842657</v>
       </c>
       <c r="M17">
-        <v>0.1762200643438625</v>
+        <v>0.2643421622456898</v>
       </c>
       <c r="N17">
-        <v>1.815837913178589</v>
+        <v>0.7911122450494883</v>
       </c>
       <c r="O17">
-        <v>2.560866214319418</v>
+        <v>1.717816233310174</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6472083980737011</v>
+        <v>0.8973936150485713</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03631265856125765</v>
+        <v>0.07489659025871731</v>
       </c>
       <c r="E18">
-        <v>0.2549217461798303</v>
+        <v>0.1070299618772084</v>
       </c>
       <c r="F18">
-        <v>0.7549505066049633</v>
+        <v>0.6207692447995115</v>
       </c>
       <c r="G18">
-        <v>0.002423830300166995</v>
+        <v>0.0007878041561883986</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9875075453337843</v>
+        <v>0.3877391040382605</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5551201460276047</v>
+        <v>1.818125836172555</v>
       </c>
       <c r="L18">
-        <v>0.1736923565183304</v>
+        <v>0.2832772502049608</v>
       </c>
       <c r="M18">
-        <v>0.1745981566625012</v>
+        <v>0.2580843317926806</v>
       </c>
       <c r="N18">
-        <v>1.819889120721818</v>
+        <v>0.8005740606455376</v>
       </c>
       <c r="O18">
-        <v>2.559594938680988</v>
+        <v>1.696264746370815</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6452996852244155</v>
+        <v>0.8901123442247751</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03613694493914466</v>
+        <v>0.07437300212201592</v>
       </c>
       <c r="E19">
-        <v>0.2550259941574551</v>
+        <v>0.1071818647184457</v>
       </c>
       <c r="F19">
-        <v>0.7544601829057598</v>
+        <v>0.6172681391978116</v>
       </c>
       <c r="G19">
-        <v>0.002424011668046899</v>
+        <v>0.0007880914597553357</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.988163755406184</v>
+        <v>0.3884979333672192</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5505260661311127</v>
+        <v>1.803204994176554</v>
       </c>
       <c r="L19">
-        <v>0.1730904596158496</v>
+        <v>0.2809142768908401</v>
       </c>
       <c r="M19">
-        <v>0.1740500788460793</v>
+        <v>0.2559683932754062</v>
       </c>
       <c r="N19">
-        <v>1.821270356764387</v>
+        <v>0.8037984572971926</v>
       </c>
       <c r="O19">
-        <v>2.559188496696322</v>
+        <v>1.689032600248737</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6539035110544091</v>
+        <v>0.9229117569281016</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03692688515558729</v>
+        <v>0.07672897184236405</v>
       </c>
       <c r="E20">
-        <v>0.254560322545083</v>
+        <v>0.1065034800177433</v>
       </c>
       <c r="F20">
-        <v>0.7566960714859263</v>
+        <v>0.633107204946775</v>
       </c>
       <c r="G20">
-        <v>0.002423200635727147</v>
+        <v>0.0007868029360732183</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9852375215341524</v>
+        <v>0.3851370851624623</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.571190649125441</v>
+        <v>1.870374194265906</v>
       </c>
       <c r="L20">
-        <v>0.1758038948846661</v>
+        <v>0.2915641192675622</v>
       </c>
       <c r="M20">
-        <v>0.1765207514033484</v>
+        <v>0.2655017234822736</v>
       </c>
       <c r="N20">
-        <v>1.815092669798968</v>
+        <v>0.7893710022375746</v>
       </c>
       <c r="O20">
-        <v>2.561112893611266</v>
+        <v>1.721836052864887</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.683061043712172</v>
+        <v>1.03372471151107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03956703474901957</v>
+        <v>0.08464210612238787</v>
       </c>
       <c r="E21">
-        <v>0.253056094725711</v>
+        <v>0.104315867043538</v>
       </c>
       <c r="F21">
-        <v>0.7647222078566216</v>
+        <v>0.6878583728612142</v>
       </c>
       <c r="G21">
-        <v>0.002420565468068593</v>
+        <v>0.0007825486708471707</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9758743204751745</v>
+        <v>0.3748139475049257</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6404553130485624</v>
+        <v>2.096542490249789</v>
       </c>
       <c r="L21">
-        <v>0.1850047886367747</v>
+        <v>0.3276481769572968</v>
       </c>
       <c r="M21">
-        <v>0.1848958908292886</v>
+        <v>0.2977440449053645</v>
       </c>
       <c r="N21">
-        <v>1.795001978470129</v>
+        <v>0.7423750935774187</v>
       </c>
       <c r="O21">
-        <v>2.569247155463046</v>
+        <v>1.836767250043067</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7023006810103425</v>
+        <v>1.10664827015583</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04128200681772398</v>
+        <v>0.08981376134906327</v>
       </c>
       <c r="E22">
-        <v>0.2521178490364231</v>
+        <v>0.1029554138717141</v>
       </c>
       <c r="F22">
-        <v>0.7703504305988105</v>
+        <v>0.7248719807909794</v>
       </c>
       <c r="G22">
-        <v>0.002418909888811555</v>
+        <v>0.0007798222100875096</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9701039139829533</v>
+        <v>0.3688198366102462</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6855968243671953</v>
+        <v>2.244813784019414</v>
       </c>
       <c r="L22">
-        <v>0.191080266503235</v>
+        <v>0.3514796581985848</v>
       </c>
       <c r="M22">
-        <v>0.1904240203712178</v>
+        <v>0.3189898895390044</v>
       </c>
       <c r="N22">
-        <v>1.782367534027962</v>
+        <v>0.7128016435277384</v>
       </c>
       <c r="O22">
-        <v>2.575806584801455</v>
+        <v>1.915649718032853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6920155083671204</v>
+        <v>1.067678768388305</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04036766458979457</v>
+        <v>0.08705342871060395</v>
       </c>
       <c r="E23">
-        <v>0.2526145130098008</v>
+        <v>0.1036751102573281</v>
       </c>
       <c r="F23">
-        <v>0.7673115469405616</v>
+        <v>0.7049987414155652</v>
       </c>
       <c r="G23">
-        <v>0.00241978742062519</v>
+        <v>0.0007812725661868604</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.973151770673784</v>
+        <v>0.3719481189541689</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6615157974434567</v>
+        <v>2.165630582042951</v>
       </c>
       <c r="L23">
-        <v>0.1878320163031333</v>
+        <v>0.3387360648394093</v>
       </c>
       <c r="M23">
-        <v>0.1874686109675707</v>
+        <v>0.3076336425404449</v>
       </c>
       <c r="N23">
-        <v>1.789065392869514</v>
+        <v>0.7284785441624084</v>
       </c>
       <c r="O23">
-        <v>2.572191963787276</v>
+        <v>1.873187046434538</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6534300831569908</v>
+        <v>0.9211083811328535</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03688355753607198</v>
+        <v>0.07659960771985652</v>
       </c>
       <c r="E24">
-        <v>0.2545856675610949</v>
+        <v>0.1065403911513261</v>
       </c>
       <c r="F24">
-        <v>0.7565713532483116</v>
+        <v>0.6322318426984879</v>
       </c>
       <c r="G24">
-        <v>0.002423244835245843</v>
+        <v>0.0007868734086962812</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9853964530631032</v>
+        <v>0.3853180776400116</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5700564624322908</v>
+        <v>1.866683970623995</v>
       </c>
       <c r="L24">
-        <v>0.1756545681483033</v>
+        <v>0.2909782020081195</v>
       </c>
       <c r="M24">
-        <v>0.1763847936944742</v>
+        <v>0.2649774415138317</v>
       </c>
       <c r="N24">
-        <v>1.815429415194892</v>
+        <v>0.7901578244875864</v>
       </c>
       <c r="O24">
-        <v>2.561000936832329</v>
+        <v>1.720017525699433</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6126147513729734</v>
+        <v>0.7648721663734364</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03308103778465465</v>
+        <v>0.06531122207704243</v>
       </c>
       <c r="E25">
-        <v>0.2569053459641697</v>
+        <v>0.1099224767615974</v>
       </c>
       <c r="F25">
-        <v>0.7466311940704671</v>
+        <v>0.558471878123747</v>
       </c>
       <c r="G25">
-        <v>0.002427262135641344</v>
+        <v>0.0007931588340979618</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.000104144970759</v>
+        <v>0.4027771756968832</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4708806644285346</v>
+        <v>1.545598153555744</v>
       </c>
       <c r="L25">
-        <v>0.1627895187129553</v>
+        <v>0.2403823901120177</v>
       </c>
       <c r="M25">
-        <v>0.1646673796856852</v>
+        <v>0.2196104620066883</v>
       </c>
       <c r="N25">
-        <v>1.845996928474793</v>
+        <v>0.8613392496081236</v>
       </c>
       <c r="O25">
-        <v>2.554269476468647</v>
+        <v>1.569374124512336</v>
       </c>
     </row>
   </sheetData>
